--- a/INPUT/base anual sindicatos anidada.xlsx
+++ b/INPUT/base anual sindicatos anidada.xlsx
@@ -9,6 +9,38 @@
     <sheet name="base anual sindicatos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">anio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sindicatos_constituidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socias.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socios.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socios_as.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sindicatos_activos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socias.y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socios.y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socios_as.y</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,7 +369,2929 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>131</v>
+      </c>
+      <c r="D2" t="n">
+        <v>147</v>
+      </c>
+      <c r="E2" t="n">
+        <v>278</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>131</v>
+      </c>
+      <c r="H2" t="n">
+        <v>147</v>
+      </c>
+      <c r="I2" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1920</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>45</v>
+      </c>
+      <c r="E3" t="n">
+        <v>45</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1923</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1924</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>174</v>
+      </c>
+      <c r="E5" t="n">
+        <v>174</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>174</v>
+      </c>
+      <c r="I5" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1925</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>380</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2361</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>370</v>
+      </c>
+      <c r="H6" t="n">
+        <v>680</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1926</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>92</v>
+      </c>
+      <c r="D7" t="n">
+        <v>661</v>
+      </c>
+      <c r="E7" t="n">
+        <v>753</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>92</v>
+      </c>
+      <c r="H7" t="n">
+        <v>189</v>
+      </c>
+      <c r="I7" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1927</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>373</v>
+      </c>
+      <c r="E8" t="n">
+        <v>376</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>301</v>
+      </c>
+      <c r="I8" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1928</v>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>124</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1283</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1407</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>124</v>
+      </c>
+      <c r="H9" t="n">
+        <v>942</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1929</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C10" t="n">
+        <v>102</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1188</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1290</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13</v>
+      </c>
+      <c r="G10" t="n">
+        <v>94</v>
+      </c>
+      <c r="H10" t="n">
+        <v>862</v>
+      </c>
+      <c r="I10" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1930</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="n">
+        <v>201</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1299</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>193</v>
+      </c>
+      <c r="H11" t="n">
+        <v>956</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B12" t="n">
+        <v>14</v>
+      </c>
+      <c r="C12" t="n">
+        <v>333</v>
+      </c>
+      <c r="D12" t="n">
+        <v>853</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1186</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>80</v>
+      </c>
+      <c r="H12" t="n">
+        <v>519</v>
+      </c>
+      <c r="I12" t="n">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1932</v>
+      </c>
+      <c r="B13" t="n">
+        <v>36</v>
+      </c>
+      <c r="C13" t="n">
+        <v>290</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2135</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2425</v>
+      </c>
+      <c r="F13" t="n">
+        <v>13</v>
+      </c>
+      <c r="G13" t="n">
+        <v>248</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1291</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1933</v>
+      </c>
+      <c r="B14" t="n">
+        <v>37</v>
+      </c>
+      <c r="C14" t="n">
+        <v>163</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1713</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1876</v>
+      </c>
+      <c r="F14" t="n">
+        <v>16</v>
+      </c>
+      <c r="G14" t="n">
+        <v>131</v>
+      </c>
+      <c r="H14" t="n">
+        <v>865</v>
+      </c>
+      <c r="I14" t="n">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1934</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12</v>
+      </c>
+      <c r="D15" t="n">
+        <v>405</v>
+      </c>
+      <c r="E15" t="n">
+        <v>417</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>11</v>
+      </c>
+      <c r="H15" t="n">
+        <v>65</v>
+      </c>
+      <c r="I15" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1935</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>87</v>
+      </c>
+      <c r="D16" t="n">
+        <v>726</v>
+      </c>
+      <c r="E16" t="n">
+        <v>813</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>85</v>
+      </c>
+      <c r="H16" t="n">
+        <v>458</v>
+      </c>
+      <c r="I16" t="n">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1936</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>122</v>
+      </c>
+      <c r="D17" t="n">
+        <v>702</v>
+      </c>
+      <c r="E17" t="n">
+        <v>824</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>89</v>
+      </c>
+      <c r="H17" t="n">
+        <v>461</v>
+      </c>
+      <c r="I17" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1937</v>
+      </c>
+      <c r="B18" t="n">
+        <v>22</v>
+      </c>
+      <c r="C18" t="n">
+        <v>202</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1860</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2062</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9</v>
+      </c>
+      <c r="G18" t="n">
+        <v>178</v>
+      </c>
+      <c r="H18" t="n">
+        <v>793</v>
+      </c>
+      <c r="I18" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B19" t="n">
+        <v>28</v>
+      </c>
+      <c r="C19" t="n">
+        <v>251</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1790</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2041</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" t="n">
+        <v>183</v>
+      </c>
+      <c r="H19" t="n">
+        <v>765</v>
+      </c>
+      <c r="I19" t="n">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1939</v>
+      </c>
+      <c r="B20" t="n">
+        <v>96</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1898</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7581</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9479</v>
+      </c>
+      <c r="F20" t="n">
+        <v>27</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1556</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3389</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4945</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1940</v>
+      </c>
+      <c r="B21" t="n">
+        <v>35</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6575</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3131</v>
+      </c>
+      <c r="E21" t="n">
+        <v>9706</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6516</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2070</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8586</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1941</v>
+      </c>
+      <c r="B22" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" t="n">
+        <v>70</v>
+      </c>
+      <c r="D22" t="n">
+        <v>589</v>
+      </c>
+      <c r="E22" t="n">
+        <v>659</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>53</v>
+      </c>
+      <c r="H22" t="n">
+        <v>317</v>
+      </c>
+      <c r="I22" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1942</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>83</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1624</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1707</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>71</v>
+      </c>
+      <c r="H23" t="n">
+        <v>857</v>
+      </c>
+      <c r="I23" t="n">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1943</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20</v>
+      </c>
+      <c r="C24" t="n">
+        <v>249</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1699</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1948</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>118</v>
+      </c>
+      <c r="H24" t="n">
+        <v>576</v>
+      </c>
+      <c r="I24" t="n">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1944</v>
+      </c>
+      <c r="B25" t="n">
+        <v>11</v>
+      </c>
+      <c r="C25" t="n">
+        <v>137</v>
+      </c>
+      <c r="D25" t="n">
+        <v>525</v>
+      </c>
+      <c r="E25" t="n">
+        <v>662</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>136</v>
+      </c>
+      <c r="H25" t="n">
+        <v>218</v>
+      </c>
+      <c r="I25" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1945</v>
+      </c>
+      <c r="B26" t="n">
+        <v>29</v>
+      </c>
+      <c r="C26" t="n">
+        <v>811</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2679</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3490</v>
+      </c>
+      <c r="F26" t="n">
+        <v>10</v>
+      </c>
+      <c r="G26" t="n">
+        <v>768</v>
+      </c>
+      <c r="H26" t="n">
+        <v>979</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1946</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>86</v>
+      </c>
+      <c r="D27" t="n">
+        <v>698</v>
+      </c>
+      <c r="E27" t="n">
+        <v>784</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8</v>
+      </c>
+      <c r="G27" t="n">
+        <v>82</v>
+      </c>
+      <c r="H27" t="n">
+        <v>383</v>
+      </c>
+      <c r="I27" t="n">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1947</v>
+      </c>
+      <c r="B28" t="n">
+        <v>21</v>
+      </c>
+      <c r="C28" t="n">
+        <v>235</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1229</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1464</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6</v>
+      </c>
+      <c r="G28" t="n">
+        <v>182</v>
+      </c>
+      <c r="H28" t="n">
+        <v>785</v>
+      </c>
+      <c r="I28" t="n">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1948</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12</v>
+      </c>
+      <c r="C29" t="n">
+        <v>18</v>
+      </c>
+      <c r="D29" t="n">
+        <v>529</v>
+      </c>
+      <c r="E29" t="n">
+        <v>547</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>12</v>
+      </c>
+      <c r="H29" t="n">
+        <v>328</v>
+      </c>
+      <c r="I29" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1949</v>
+      </c>
+      <c r="B30" t="n">
+        <v>21</v>
+      </c>
+      <c r="C30" t="n">
+        <v>354</v>
+      </c>
+      <c r="D30" t="n">
+        <v>758</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1112</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8</v>
+      </c>
+      <c r="G30" t="n">
+        <v>305</v>
+      </c>
+      <c r="H30" t="n">
+        <v>436</v>
+      </c>
+      <c r="I30" t="n">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1950</v>
+      </c>
+      <c r="B31" t="n">
+        <v>19</v>
+      </c>
+      <c r="C31" t="n">
+        <v>131</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1113</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1244</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="n">
+        <v>98</v>
+      </c>
+      <c r="H31" t="n">
+        <v>760</v>
+      </c>
+      <c r="I31" t="n">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1951</v>
+      </c>
+      <c r="B32" t="n">
+        <v>16</v>
+      </c>
+      <c r="C32" t="n">
+        <v>270</v>
+      </c>
+      <c r="D32" t="n">
+        <v>994</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1264</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>265</v>
+      </c>
+      <c r="H32" t="n">
+        <v>533</v>
+      </c>
+      <c r="I32" t="n">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1952</v>
+      </c>
+      <c r="B33" t="n">
+        <v>35</v>
+      </c>
+      <c r="C33" t="n">
+        <v>415</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1666</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2081</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8</v>
+      </c>
+      <c r="G33" t="n">
+        <v>256</v>
+      </c>
+      <c r="H33" t="n">
+        <v>597</v>
+      </c>
+      <c r="I33" t="n">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1953</v>
+      </c>
+      <c r="B34" t="n">
+        <v>48</v>
+      </c>
+      <c r="C34" t="n">
+        <v>975</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2123</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3098</v>
+      </c>
+      <c r="F34" t="n">
+        <v>17</v>
+      </c>
+      <c r="G34" t="n">
+        <v>915</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1467</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1954</v>
+      </c>
+      <c r="B35" t="n">
+        <v>44</v>
+      </c>
+      <c r="C35" t="n">
+        <v>433</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1634</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2067</v>
+      </c>
+      <c r="F35" t="n">
+        <v>9</v>
+      </c>
+      <c r="G35" t="n">
+        <v>332</v>
+      </c>
+      <c r="H35" t="n">
+        <v>589</v>
+      </c>
+      <c r="I35" t="n">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1955</v>
+      </c>
+      <c r="B36" t="n">
+        <v>28</v>
+      </c>
+      <c r="C36" t="n">
+        <v>636</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1533</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2169</v>
+      </c>
+      <c r="F36" t="n">
+        <v>11</v>
+      </c>
+      <c r="G36" t="n">
+        <v>513</v>
+      </c>
+      <c r="H36" t="n">
+        <v>809</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1956</v>
+      </c>
+      <c r="B37" t="n">
+        <v>17</v>
+      </c>
+      <c r="C37" t="n">
+        <v>162</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3415</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3577</v>
+      </c>
+      <c r="F37" t="n">
+        <v>7</v>
+      </c>
+      <c r="G37" t="n">
+        <v>162</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1754</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1957</v>
+      </c>
+      <c r="B38" t="n">
+        <v>18</v>
+      </c>
+      <c r="C38" t="n">
+        <v>330</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1417</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1747</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7</v>
+      </c>
+      <c r="G38" t="n">
+        <v>69</v>
+      </c>
+      <c r="H38" t="n">
+        <v>824</v>
+      </c>
+      <c r="I38" t="n">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1958</v>
+      </c>
+      <c r="B39" t="n">
+        <v>29</v>
+      </c>
+      <c r="C39" t="n">
+        <v>99</v>
+      </c>
+      <c r="D39" t="n">
+        <v>896</v>
+      </c>
+      <c r="E39" t="n">
+        <v>995</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>47</v>
+      </c>
+      <c r="I39" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1959</v>
+      </c>
+      <c r="B40" t="n">
+        <v>22</v>
+      </c>
+      <c r="C40" t="n">
+        <v>425</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1828</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2253</v>
+      </c>
+      <c r="F40" t="n">
+        <v>6</v>
+      </c>
+      <c r="G40" t="n">
+        <v>371</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1396</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B41" t="n">
+        <v>18</v>
+      </c>
+      <c r="C41" t="n">
+        <v>96</v>
+      </c>
+      <c r="D41" t="n">
+        <v>842</v>
+      </c>
+      <c r="E41" t="n">
+        <v>938</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>29</v>
+      </c>
+      <c r="H41" t="n">
+        <v>360</v>
+      </c>
+      <c r="I41" t="n">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1961</v>
+      </c>
+      <c r="B42" t="n">
+        <v>31</v>
+      </c>
+      <c r="C42" t="n">
+        <v>796</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3765</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4561</v>
+      </c>
+      <c r="F42" t="n">
+        <v>12</v>
+      </c>
+      <c r="G42" t="n">
+        <v>748</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2744</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1962</v>
+      </c>
+      <c r="B43" t="n">
+        <v>37</v>
+      </c>
+      <c r="C43" t="n">
+        <v>164</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1639</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1803</v>
+      </c>
+      <c r="F43" t="n">
+        <v>11</v>
+      </c>
+      <c r="G43" t="n">
+        <v>162</v>
+      </c>
+      <c r="H43" t="n">
+        <v>478</v>
+      </c>
+      <c r="I43" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1963</v>
+      </c>
+      <c r="B44" t="n">
+        <v>51</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2791</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4362</v>
+      </c>
+      <c r="E44" t="n">
+        <v>7153</v>
+      </c>
+      <c r="F44" t="n">
+        <v>19</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2100</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2676</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4776</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1964</v>
+      </c>
+      <c r="B45" t="n">
+        <v>79</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1974</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6407</v>
+      </c>
+      <c r="E45" t="n">
+        <v>8381</v>
+      </c>
+      <c r="F45" t="n">
+        <v>22</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1521</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4706</v>
+      </c>
+      <c r="I45" t="n">
+        <v>6227</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1965</v>
+      </c>
+      <c r="B46" t="n">
+        <v>261</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3182</v>
+      </c>
+      <c r="D46" t="n">
+        <v>18412</v>
+      </c>
+      <c r="E46" t="n">
+        <v>21594</v>
+      </c>
+      <c r="F46" t="n">
+        <v>58</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2300</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6247</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B47" t="n">
+        <v>222</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2787</v>
+      </c>
+      <c r="D47" t="n">
+        <v>11322</v>
+      </c>
+      <c r="E47" t="n">
+        <v>14109</v>
+      </c>
+      <c r="F47" t="n">
+        <v>59</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2436</v>
+      </c>
+      <c r="H47" t="n">
+        <v>6580</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9016</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1967</v>
+      </c>
+      <c r="B48" t="n">
+        <v>265</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5790</v>
+      </c>
+      <c r="D48" t="n">
+        <v>15547</v>
+      </c>
+      <c r="E48" t="n">
+        <v>21337</v>
+      </c>
+      <c r="F48" t="n">
+        <v>63</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3535</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5133</v>
+      </c>
+      <c r="I48" t="n">
+        <v>8668</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1968</v>
+      </c>
+      <c r="B49" t="n">
+        <v>157</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3013</v>
+      </c>
+      <c r="D49" t="n">
+        <v>7480</v>
+      </c>
+      <c r="E49" t="n">
+        <v>10493</v>
+      </c>
+      <c r="F49" t="n">
+        <v>48</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2820</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4803</v>
+      </c>
+      <c r="I49" t="n">
+        <v>7623</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1969</v>
+      </c>
+      <c r="B50" t="n">
+        <v>173</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2362</v>
+      </c>
+      <c r="D50" t="n">
+        <v>6711</v>
+      </c>
+      <c r="E50" t="n">
+        <v>9073</v>
+      </c>
+      <c r="F50" t="n">
+        <v>39</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2055</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3493</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5548</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B51" t="n">
+        <v>271</v>
+      </c>
+      <c r="C51" t="n">
+        <v>9933</v>
+      </c>
+      <c r="D51" t="n">
+        <v>22533</v>
+      </c>
+      <c r="E51" t="n">
+        <v>32466</v>
+      </c>
+      <c r="F51" t="n">
+        <v>69</v>
+      </c>
+      <c r="G51" t="n">
+        <v>9040</v>
+      </c>
+      <c r="H51" t="n">
+        <v>15955</v>
+      </c>
+      <c r="I51" t="n">
+        <v>24995</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1971</v>
+      </c>
+      <c r="B52" t="n">
+        <v>394</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5576</v>
+      </c>
+      <c r="D52" t="n">
+        <v>18056</v>
+      </c>
+      <c r="E52" t="n">
+        <v>23632</v>
+      </c>
+      <c r="F52" t="n">
+        <v>85</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4681</v>
+      </c>
+      <c r="H52" t="n">
+        <v>9339</v>
+      </c>
+      <c r="I52" t="n">
+        <v>14020</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1972</v>
+      </c>
+      <c r="B53" t="n">
+        <v>182</v>
+      </c>
+      <c r="C53" t="n">
+        <v>6630</v>
+      </c>
+      <c r="D53" t="n">
+        <v>11228</v>
+      </c>
+      <c r="E53" t="n">
+        <v>17858</v>
+      </c>
+      <c r="F53" t="n">
+        <v>36</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6157</v>
+      </c>
+      <c r="H53" t="n">
+        <v>6749</v>
+      </c>
+      <c r="I53" t="n">
+        <v>12906</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1973</v>
+      </c>
+      <c r="B54" t="n">
+        <v>67</v>
+      </c>
+      <c r="C54" t="n">
+        <v>914</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2272</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3186</v>
+      </c>
+      <c r="F54" t="n">
+        <v>8</v>
+      </c>
+      <c r="G54" t="n">
+        <v>691</v>
+      </c>
+      <c r="H54" t="n">
+        <v>939</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1974</v>
+      </c>
+      <c r="B55" t="n">
+        <v>17</v>
+      </c>
+      <c r="C55" t="n">
+        <v>85</v>
+      </c>
+      <c r="D55" t="n">
+        <v>429</v>
+      </c>
+      <c r="E55" t="n">
+        <v>514</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5</v>
+      </c>
+      <c r="G55" t="n">
+        <v>56</v>
+      </c>
+      <c r="H55" t="n">
+        <v>103</v>
+      </c>
+      <c r="I55" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B56" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" t="n">
+        <v>25</v>
+      </c>
+      <c r="D56" t="n">
+        <v>235</v>
+      </c>
+      <c r="E56" t="n">
+        <v>260</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>12</v>
+      </c>
+      <c r="H56" t="n">
+        <v>31</v>
+      </c>
+      <c r="I56" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1976</v>
+      </c>
+      <c r="B57" t="n">
+        <v>9</v>
+      </c>
+      <c r="C57" t="n">
+        <v>247</v>
+      </c>
+      <c r="D57" t="n">
+        <v>391</v>
+      </c>
+      <c r="E57" t="n">
+        <v>638</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3</v>
+      </c>
+      <c r="G57" t="n">
+        <v>231</v>
+      </c>
+      <c r="H57" t="n">
+        <v>360</v>
+      </c>
+      <c r="I57" t="n">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B58" t="n">
+        <v>6</v>
+      </c>
+      <c r="C58" t="n">
+        <v>192</v>
+      </c>
+      <c r="D58" t="n">
+        <v>137</v>
+      </c>
+      <c r="E58" t="n">
+        <v>329</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>192</v>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+      <c r="I58" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4</v>
+      </c>
+      <c r="C59" t="n">
+        <v>15</v>
+      </c>
+      <c r="D59" t="n">
+        <v>120</v>
+      </c>
+      <c r="E59" t="n">
+        <v>135</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>24</v>
+      </c>
+      <c r="I59" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1979</v>
+      </c>
+      <c r="B60" t="n">
+        <v>379</v>
+      </c>
+      <c r="C60" t="n">
+        <v>5683</v>
+      </c>
+      <c r="D60" t="n">
+        <v>13184</v>
+      </c>
+      <c r="E60" t="n">
+        <v>18867</v>
+      </c>
+      <c r="F60" t="n">
+        <v>66</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5175</v>
+      </c>
+      <c r="H60" t="n">
+        <v>7391</v>
+      </c>
+      <c r="I60" t="n">
+        <v>12566</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B61" t="n">
+        <v>430</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5493</v>
+      </c>
+      <c r="D61" t="n">
+        <v>17399</v>
+      </c>
+      <c r="E61" t="n">
+        <v>22892</v>
+      </c>
+      <c r="F61" t="n">
+        <v>51</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4146</v>
+      </c>
+      <c r="H61" t="n">
+        <v>4242</v>
+      </c>
+      <c r="I61" t="n">
+        <v>8388</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1981</v>
+      </c>
+      <c r="B62" t="n">
+        <v>256</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5531</v>
+      </c>
+      <c r="D62" t="n">
+        <v>13937</v>
+      </c>
+      <c r="E62" t="n">
+        <v>19468</v>
+      </c>
+      <c r="F62" t="n">
+        <v>39</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4554</v>
+      </c>
+      <c r="H62" t="n">
+        <v>7827</v>
+      </c>
+      <c r="I62" t="n">
+        <v>12381</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1982</v>
+      </c>
+      <c r="B63" t="n">
+        <v>208</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1419</v>
+      </c>
+      <c r="D63" t="n">
+        <v>8619</v>
+      </c>
+      <c r="E63" t="n">
+        <v>10038</v>
+      </c>
+      <c r="F63" t="n">
+        <v>46</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1006</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3684</v>
+      </c>
+      <c r="I63" t="n">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B64" t="n">
+        <v>309</v>
+      </c>
+      <c r="C64" t="n">
+        <v>6235</v>
+      </c>
+      <c r="D64" t="n">
+        <v>17273</v>
+      </c>
+      <c r="E64" t="n">
+        <v>23508</v>
+      </c>
+      <c r="F64" t="n">
+        <v>63</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5544</v>
+      </c>
+      <c r="H64" t="n">
+        <v>8386</v>
+      </c>
+      <c r="I64" t="n">
+        <v>13930</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1984</v>
+      </c>
+      <c r="B65" t="n">
+        <v>375</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4426</v>
+      </c>
+      <c r="D65" t="n">
+        <v>18087</v>
+      </c>
+      <c r="E65" t="n">
+        <v>22513</v>
+      </c>
+      <c r="F65" t="n">
+        <v>60</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3684</v>
+      </c>
+      <c r="H65" t="n">
+        <v>5714</v>
+      </c>
+      <c r="I65" t="n">
+        <v>9398</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B66" t="n">
+        <v>376</v>
+      </c>
+      <c r="C66" t="n">
+        <v>7340</v>
+      </c>
+      <c r="D66" t="n">
+        <v>17440</v>
+      </c>
+      <c r="E66" t="n">
+        <v>24780</v>
+      </c>
+      <c r="F66" t="n">
+        <v>73</v>
+      </c>
+      <c r="G66" t="n">
+        <v>6286</v>
+      </c>
+      <c r="H66" t="n">
+        <v>6165</v>
+      </c>
+      <c r="I66" t="n">
+        <v>12451</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B67" t="n">
+        <v>471</v>
+      </c>
+      <c r="C67" t="n">
+        <v>5599</v>
+      </c>
+      <c r="D67" t="n">
+        <v>18837</v>
+      </c>
+      <c r="E67" t="n">
+        <v>24436</v>
+      </c>
+      <c r="F67" t="n">
+        <v>78</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4904</v>
+      </c>
+      <c r="H67" t="n">
+        <v>5990</v>
+      </c>
+      <c r="I67" t="n">
+        <v>10894</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B68" t="n">
+        <v>548</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4782</v>
+      </c>
+      <c r="D68" t="n">
+        <v>33952</v>
+      </c>
+      <c r="E68" t="n">
+        <v>38734</v>
+      </c>
+      <c r="F68" t="n">
+        <v>90</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3547</v>
+      </c>
+      <c r="H68" t="n">
+        <v>5308</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8855</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B69" t="n">
+        <v>640</v>
+      </c>
+      <c r="C69" t="n">
+        <v>5245</v>
+      </c>
+      <c r="D69" t="n">
+        <v>29650</v>
+      </c>
+      <c r="E69" t="n">
+        <v>34895</v>
+      </c>
+      <c r="F69" t="n">
+        <v>104</v>
+      </c>
+      <c r="G69" t="n">
+        <v>3676</v>
+      </c>
+      <c r="H69" t="n">
+        <v>8761</v>
+      </c>
+      <c r="I69" t="n">
+        <v>12437</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B70" t="n">
+        <v>833</v>
+      </c>
+      <c r="C70" t="n">
+        <v>16010</v>
+      </c>
+      <c r="D70" t="n">
+        <v>42636</v>
+      </c>
+      <c r="E70" t="n">
+        <v>58646</v>
+      </c>
+      <c r="F70" t="n">
+        <v>135</v>
+      </c>
+      <c r="G70" t="n">
+        <v>13913</v>
+      </c>
+      <c r="H70" t="n">
+        <v>15137</v>
+      </c>
+      <c r="I70" t="n">
+        <v>29050</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1630</v>
+      </c>
+      <c r="C71" t="n">
+        <v>20502</v>
+      </c>
+      <c r="D71" t="n">
+        <v>62834</v>
+      </c>
+      <c r="E71" t="n">
+        <v>83336</v>
+      </c>
+      <c r="F71" t="n">
+        <v>283</v>
+      </c>
+      <c r="G71" t="n">
+        <v>14910</v>
+      </c>
+      <c r="H71" t="n">
+        <v>14715</v>
+      </c>
+      <c r="I71" t="n">
+        <v>29625</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1276</v>
+      </c>
+      <c r="C72" t="n">
+        <v>15526</v>
+      </c>
+      <c r="D72" t="n">
+        <v>47364</v>
+      </c>
+      <c r="E72" t="n">
+        <v>62890</v>
+      </c>
+      <c r="F72" t="n">
+        <v>198</v>
+      </c>
+      <c r="G72" t="n">
+        <v>12500</v>
+      </c>
+      <c r="H72" t="n">
+        <v>10787</v>
+      </c>
+      <c r="I72" t="n">
+        <v>23287</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B73" t="n">
+        <v>988</v>
+      </c>
+      <c r="C73" t="n">
+        <v>8572</v>
+      </c>
+      <c r="D73" t="n">
+        <v>33806</v>
+      </c>
+      <c r="E73" t="n">
+        <v>42378</v>
+      </c>
+      <c r="F73" t="n">
+        <v>159</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5821</v>
+      </c>
+      <c r="H73" t="n">
+        <v>8390</v>
+      </c>
+      <c r="I73" t="n">
+        <v>14211</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B74" t="n">
+        <v>715</v>
+      </c>
+      <c r="C74" t="n">
+        <v>14378</v>
+      </c>
+      <c r="D74" t="n">
+        <v>28999</v>
+      </c>
+      <c r="E74" t="n">
+        <v>43377</v>
+      </c>
+      <c r="F74" t="n">
+        <v>124</v>
+      </c>
+      <c r="G74" t="n">
+        <v>12635</v>
+      </c>
+      <c r="H74" t="n">
+        <v>7814</v>
+      </c>
+      <c r="I74" t="n">
+        <v>20449</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B75" t="n">
+        <v>818</v>
+      </c>
+      <c r="C75" t="n">
+        <v>12041</v>
+      </c>
+      <c r="D75" t="n">
+        <v>28938</v>
+      </c>
+      <c r="E75" t="n">
+        <v>40979</v>
+      </c>
+      <c r="F75" t="n">
+        <v>190</v>
+      </c>
+      <c r="G75" t="n">
+        <v>9957</v>
+      </c>
+      <c r="H75" t="n">
+        <v>9878</v>
+      </c>
+      <c r="I75" t="n">
+        <v>19835</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B76" t="n">
+        <v>629</v>
+      </c>
+      <c r="C76" t="n">
+        <v>6709</v>
+      </c>
+      <c r="D76" t="n">
+        <v>29452</v>
+      </c>
+      <c r="E76" t="n">
+        <v>36161</v>
+      </c>
+      <c r="F76" t="n">
+        <v>125</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4982</v>
+      </c>
+      <c r="H76" t="n">
+        <v>6021</v>
+      </c>
+      <c r="I76" t="n">
+        <v>11003</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B77" t="n">
+        <v>622</v>
+      </c>
+      <c r="C77" t="n">
+        <v>8527</v>
+      </c>
+      <c r="D77" t="n">
+        <v>21897</v>
+      </c>
+      <c r="E77" t="n">
+        <v>30424</v>
+      </c>
+      <c r="F77" t="n">
+        <v>113</v>
+      </c>
+      <c r="G77" t="n">
+        <v>6520</v>
+      </c>
+      <c r="H77" t="n">
+        <v>7349</v>
+      </c>
+      <c r="I77" t="n">
+        <v>13869</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B78" t="n">
+        <v>588</v>
+      </c>
+      <c r="C78" t="n">
+        <v>7388</v>
+      </c>
+      <c r="D78" t="n">
+        <v>21960</v>
+      </c>
+      <c r="E78" t="n">
+        <v>29348</v>
+      </c>
+      <c r="F78" t="n">
+        <v>115</v>
+      </c>
+      <c r="G78" t="n">
+        <v>4714</v>
+      </c>
+      <c r="H78" t="n">
+        <v>8168</v>
+      </c>
+      <c r="I78" t="n">
+        <v>12882</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B79" t="n">
+        <v>519</v>
+      </c>
+      <c r="C79" t="n">
+        <v>6802</v>
+      </c>
+      <c r="D79" t="n">
+        <v>22122</v>
+      </c>
+      <c r="E79" t="n">
+        <v>28924</v>
+      </c>
+      <c r="F79" t="n">
+        <v>128</v>
+      </c>
+      <c r="G79" t="n">
+        <v>4486</v>
+      </c>
+      <c r="H79" t="n">
+        <v>8831</v>
+      </c>
+      <c r="I79" t="n">
+        <v>13317</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B80" t="n">
+        <v>448</v>
+      </c>
+      <c r="C80" t="n">
+        <v>5690</v>
+      </c>
+      <c r="D80" t="n">
+        <v>16752</v>
+      </c>
+      <c r="E80" t="n">
+        <v>22442</v>
+      </c>
+      <c r="F80" t="n">
+        <v>101</v>
+      </c>
+      <c r="G80" t="n">
+        <v>3394</v>
+      </c>
+      <c r="H80" t="n">
+        <v>5790</v>
+      </c>
+      <c r="I80" t="n">
+        <v>9184</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B81" t="n">
+        <v>641</v>
+      </c>
+      <c r="C81" t="n">
+        <v>8324</v>
+      </c>
+      <c r="D81" t="n">
+        <v>20152</v>
+      </c>
+      <c r="E81" t="n">
+        <v>28476</v>
+      </c>
+      <c r="F81" t="n">
+        <v>143</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3822</v>
+      </c>
+      <c r="H81" t="n">
+        <v>6508</v>
+      </c>
+      <c r="I81" t="n">
+        <v>10330</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B82" t="n">
+        <v>573</v>
+      </c>
+      <c r="C82" t="n">
+        <v>15624</v>
+      </c>
+      <c r="D82" t="n">
+        <v>23708</v>
+      </c>
+      <c r="E82" t="n">
+        <v>39332</v>
+      </c>
+      <c r="F82" t="n">
+        <v>138</v>
+      </c>
+      <c r="G82" t="n">
+        <v>10339</v>
+      </c>
+      <c r="H82" t="n">
+        <v>10540</v>
+      </c>
+      <c r="I82" t="n">
+        <v>20879</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1066</v>
+      </c>
+      <c r="C83" t="n">
+        <v>23325</v>
+      </c>
+      <c r="D83" t="n">
+        <v>38990</v>
+      </c>
+      <c r="E83" t="n">
+        <v>62315</v>
+      </c>
+      <c r="F83" t="n">
+        <v>262</v>
+      </c>
+      <c r="G83" t="n">
+        <v>12712</v>
+      </c>
+      <c r="H83" t="n">
+        <v>16603</v>
+      </c>
+      <c r="I83" t="n">
+        <v>29315</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B84" t="n">
+        <v>830</v>
+      </c>
+      <c r="C84" t="n">
+        <v>17257</v>
+      </c>
+      <c r="D84" t="n">
+        <v>30346</v>
+      </c>
+      <c r="E84" t="n">
+        <v>47603</v>
+      </c>
+      <c r="F84" t="n">
+        <v>218</v>
+      </c>
+      <c r="G84" t="n">
+        <v>10595</v>
+      </c>
+      <c r="H84" t="n">
+        <v>14745</v>
+      </c>
+      <c r="I84" t="n">
+        <v>25340</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B85" t="n">
+        <v>845</v>
+      </c>
+      <c r="C85" t="n">
+        <v>18738</v>
+      </c>
+      <c r="D85" t="n">
+        <v>33913</v>
+      </c>
+      <c r="E85" t="n">
+        <v>52651</v>
+      </c>
+      <c r="F85" t="n">
+        <v>196</v>
+      </c>
+      <c r="G85" t="n">
+        <v>9263</v>
+      </c>
+      <c r="H85" t="n">
+        <v>12080</v>
+      </c>
+      <c r="I85" t="n">
+        <v>21343</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B86" t="n">
+        <v>917</v>
+      </c>
+      <c r="C86" t="n">
+        <v>19867</v>
+      </c>
+      <c r="D86" t="n">
+        <v>34442</v>
+      </c>
+      <c r="E86" t="n">
+        <v>54309</v>
+      </c>
+      <c r="F86" t="n">
+        <v>271</v>
+      </c>
+      <c r="G86" t="n">
+        <v>13395</v>
+      </c>
+      <c r="H86" t="n">
+        <v>19413</v>
+      </c>
+      <c r="I86" t="n">
+        <v>32808</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1126</v>
+      </c>
+      <c r="C87" t="n">
+        <v>24569</v>
+      </c>
+      <c r="D87" t="n">
+        <v>44679</v>
+      </c>
+      <c r="E87" t="n">
+        <v>69248</v>
+      </c>
+      <c r="F87" t="n">
+        <v>289</v>
+      </c>
+      <c r="G87" t="n">
+        <v>15240</v>
+      </c>
+      <c r="H87" t="n">
+        <v>22272</v>
+      </c>
+      <c r="I87" t="n">
+        <v>37512</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1380</v>
+      </c>
+      <c r="C88" t="n">
+        <v>39893</v>
+      </c>
+      <c r="D88" t="n">
+        <v>66090</v>
+      </c>
+      <c r="E88" t="n">
+        <v>105983</v>
+      </c>
+      <c r="F88" t="n">
+        <v>360</v>
+      </c>
+      <c r="G88" t="n">
+        <v>27647</v>
+      </c>
+      <c r="H88" t="n">
+        <v>30616</v>
+      </c>
+      <c r="I88" t="n">
+        <v>58263</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C89" t="n">
+        <v>31407</v>
+      </c>
+      <c r="D89" t="n">
+        <v>49820</v>
+      </c>
+      <c r="E89" t="n">
+        <v>81227</v>
+      </c>
+      <c r="F89" t="n">
+        <v>377</v>
+      </c>
+      <c r="G89" t="n">
+        <v>19842</v>
+      </c>
+      <c r="H89" t="n">
+        <v>25940</v>
+      </c>
+      <c r="I89" t="n">
+        <v>45782</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1233</v>
+      </c>
+      <c r="C90" t="n">
+        <v>29376</v>
+      </c>
+      <c r="D90" t="n">
+        <v>41069</v>
+      </c>
+      <c r="E90" t="n">
+        <v>70445</v>
+      </c>
+      <c r="F90" t="n">
+        <v>349</v>
+      </c>
+      <c r="G90" t="n">
+        <v>18019</v>
+      </c>
+      <c r="H90" t="n">
+        <v>20156</v>
+      </c>
+      <c r="I90" t="n">
+        <v>38175</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1121</v>
+      </c>
+      <c r="C91" t="n">
+        <v>20566</v>
+      </c>
+      <c r="D91" t="n">
+        <v>38418</v>
+      </c>
+      <c r="E91" t="n">
+        <v>58984</v>
+      </c>
+      <c r="F91" t="n">
+        <v>354</v>
+      </c>
+      <c r="G91" t="n">
+        <v>12066</v>
+      </c>
+      <c r="H91" t="n">
+        <v>20072</v>
+      </c>
+      <c r="I91" t="n">
+        <v>32138</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1270</v>
+      </c>
+      <c r="C92" t="n">
+        <v>27599</v>
+      </c>
+      <c r="D92" t="n">
+        <v>45632</v>
+      </c>
+      <c r="E92" t="n">
+        <v>73231</v>
+      </c>
+      <c r="F92" t="n">
+        <v>424</v>
+      </c>
+      <c r="G92" t="n">
+        <v>18054</v>
+      </c>
+      <c r="H92" t="n">
+        <v>25012</v>
+      </c>
+      <c r="I92" t="n">
+        <v>43066</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1219</v>
+      </c>
+      <c r="C93" t="n">
+        <v>31272</v>
+      </c>
+      <c r="D93" t="n">
+        <v>45371</v>
+      </c>
+      <c r="E93" t="n">
+        <v>76643</v>
+      </c>
+      <c r="F93" t="n">
+        <v>456</v>
+      </c>
+      <c r="G93" t="n">
+        <v>19652</v>
+      </c>
+      <c r="H93" t="n">
+        <v>25999</v>
+      </c>
+      <c r="I93" t="n">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1266</v>
+      </c>
+      <c r="C94" t="n">
+        <v>28938</v>
+      </c>
+      <c r="D94" t="n">
+        <v>43717</v>
+      </c>
+      <c r="E94" t="n">
+        <v>72655</v>
+      </c>
+      <c r="F94" t="n">
+        <v>512</v>
+      </c>
+      <c r="G94" t="n">
+        <v>17458</v>
+      </c>
+      <c r="H94" t="n">
+        <v>27141</v>
+      </c>
+      <c r="I94" t="n">
+        <v>44599</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1270</v>
+      </c>
+      <c r="C95" t="n">
+        <v>27254</v>
+      </c>
+      <c r="D95" t="n">
+        <v>40291</v>
+      </c>
+      <c r="E95" t="n">
+        <v>67545</v>
+      </c>
+      <c r="F95" t="n">
+        <v>556</v>
+      </c>
+      <c r="G95" t="n">
+        <v>18129</v>
+      </c>
+      <c r="H95" t="n">
+        <v>24786</v>
+      </c>
+      <c r="I95" t="n">
+        <v>42915</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1269</v>
+      </c>
+      <c r="C96" t="n">
+        <v>35223</v>
+      </c>
+      <c r="D96" t="n">
+        <v>39493</v>
+      </c>
+      <c r="E96" t="n">
+        <v>74716</v>
+      </c>
+      <c r="F96" t="n">
+        <v>523</v>
+      </c>
+      <c r="G96" t="n">
+        <v>21137</v>
+      </c>
+      <c r="H96" t="n">
+        <v>23890</v>
+      </c>
+      <c r="I96" t="n">
+        <v>45027</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1142</v>
+      </c>
+      <c r="C97" t="n">
+        <v>24659</v>
+      </c>
+      <c r="D97" t="n">
+        <v>28486</v>
+      </c>
+      <c r="E97" t="n">
+        <v>53145</v>
+      </c>
+      <c r="F97" t="n">
+        <v>653</v>
+      </c>
+      <c r="G97" t="n">
+        <v>18286</v>
+      </c>
+      <c r="H97" t="n">
+        <v>20431</v>
+      </c>
+      <c r="I97" t="n">
+        <v>38717</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1125</v>
+      </c>
+      <c r="C98" t="n">
+        <v>23904</v>
+      </c>
+      <c r="D98" t="n">
+        <v>31809</v>
+      </c>
+      <c r="E98" t="n">
+        <v>55713</v>
+      </c>
+      <c r="F98" t="n">
+        <v>711</v>
+      </c>
+      <c r="G98" t="n">
+        <v>19292</v>
+      </c>
+      <c r="H98" t="n">
+        <v>24603</v>
+      </c>
+      <c r="I98" t="n">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1111</v>
+      </c>
+      <c r="C99" t="n">
+        <v>23282</v>
+      </c>
+      <c r="D99" t="n">
+        <v>46895</v>
+      </c>
+      <c r="E99" t="n">
+        <v>70177</v>
+      </c>
+      <c r="F99" t="n">
+        <v>899</v>
+      </c>
+      <c r="G99" t="n">
+        <v>21167</v>
+      </c>
+      <c r="H99" t="n">
+        <v>43443</v>
+      </c>
+      <c r="I99" t="n">
+        <v>64610</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1013</v>
+      </c>
+      <c r="C100" t="n">
+        <v>15843</v>
+      </c>
+      <c r="D100" t="n">
+        <v>22778</v>
+      </c>
+      <c r="E100" t="n">
+        <v>38621</v>
+      </c>
+      <c r="F100" t="n">
+        <v>877</v>
+      </c>
+      <c r="G100" t="n">
+        <v>14433</v>
+      </c>
+      <c r="H100" t="n">
+        <v>20486</v>
+      </c>
+      <c r="I100" t="n">
+        <v>34919</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B101" t="n">
+        <v>379</v>
+      </c>
+      <c r="C101" t="n">
+        <v>4572</v>
+      </c>
+      <c r="D101" t="n">
+        <v>8682</v>
+      </c>
+      <c r="E101" t="n">
+        <v>13254</v>
+      </c>
+      <c r="F101" t="n">
+        <v>360</v>
+      </c>
+      <c r="G101" t="n">
+        <v>4351</v>
+      </c>
+      <c r="H101" t="n">
+        <v>8165</v>
+      </c>
+      <c r="I101" t="n">
+        <v>12516</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
